--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_7_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_7_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000196877258938799</v>
+        <v>0.0003133741931310441</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008374278210464796</v>
+        <v>0.00461915000501239</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.777317141711357</v>
+        <v>4.436170125210158</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7521308165429739, 7.802503466879741]</t>
+          <t>[1.8102658591115093, 7.062074391308806]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002045097279633756</v>
+        <v>0.0009812308001881931</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002045097279633756</v>
+        <v>0.001962461600376386</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6666843268879239</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, -0.06289474781961513]</t>
+          <t>[-2.490632013656773, -1.05663176336954]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.03054614970124914</v>
+        <v>1.6879174882245e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03054614970124914</v>
+        <v>3.375834976448999e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.16695057872024</v>
+        <v>13.36438398535868</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.5640814520922, 14.769819705348286]</t>
+          <t>[11.843950566246992, 14.884817404470365]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.490310310310335</v>
+        <v>6.393693693693724</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2349349349349366</v>
+        <v>3.809009009009027</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.745685685685733</v>
+        <v>8.978378378378419</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.237034355693893e-05</v>
+        <v>0.009977053265212477</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007656550698593117</v>
+        <v>0.0318189635536127</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.908259684885169</v>
+        <v>4.112497067198738</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.0224942067558143, 8.794025163014524]</t>
+          <t>[1.1404460616295502, 7.084548072767927]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.165140666010039e-05</v>
+        <v>0.00685578237760609</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001433028133202008</v>
+        <v>0.00685578237760609</v>
       </c>
       <c r="O3" t="n">
-        <v>1.452868674633118</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.81134224687304, 2.0943951023931957]</t>
+          <t>[0.5723422051585008, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.192501123870038e-05</v>
+        <v>0.002525203919105268</v>
       </c>
       <c r="R3" t="n">
-        <v>2.385002247740076e-05</v>
+        <v>0.002525203919105268</v>
       </c>
       <c r="S3" t="n">
-        <v>13.63506446666268</v>
+        <v>13.67370910234408</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.806176795646799, 15.463952137678568]</t>
+          <t>[11.804373860444377, 15.543044344243791]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.69645645645673</v>
+        <v>18.03379379379406</v>
       </c>
       <c r="X3" t="n">
-        <v>16.21333333333357</v>
+        <v>13.99927927927948</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.17957957957989</v>
+        <v>22.06830830830863</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_7_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_7_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003133741931310441</v>
+        <v>0.0004505571260912111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00461915000501239</v>
+        <v>0.006224205847462522</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.436170125210158</v>
+        <v>4.647207775807677</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.8102658591115093, 7.062074391308806]</t>
+          <t>[2.0820942978653543, 7.212321253749999]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0009812308001881931</v>
+        <v>0.0004144161386763212</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001962461600376386</v>
+        <v>0.0008288322773526424</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.490632013656773, -1.05663176336954]</t>
+          <t>[-2.264210921506156, -0.7295790747075399]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.6879174882245e-06</v>
+        <v>0.0001464805954998205</v>
       </c>
       <c r="R2" t="n">
-        <v>3.375834976448999e-06</v>
+        <v>0.000292961190999641</v>
       </c>
       <c r="S2" t="n">
-        <v>13.36438398535868</v>
+        <v>13.45514896682015</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.843950566246992, 14.884817404470365]</t>
+          <t>[11.822692520972986, 15.087605412667315]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.393693693693724</v>
+        <v>5.40562562562565</v>
       </c>
       <c r="X2" t="n">
-        <v>3.809009009009027</v>
+        <v>2.634674674674689</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.978378378378419</v>
+        <v>8.176576576576611</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009977053265212477</v>
+        <v>0.01456556670978959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0318189635536127</v>
+        <v>0.04379856942729717</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.112497067198738</v>
+        <v>3.943509950774279</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.1404460616295502, 7.084548072767927]</t>
+          <t>[0.8054640537739131, 7.081555847774644]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.00685578237760609</v>
+        <v>0.01396086694808973</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00685578237760609</v>
+        <v>0.01396086694808973</v>
       </c>
       <c r="O3" t="n">
-        <v>1.616395018964118</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 2.6604478327697354]</t>
+          <t>[0.40881586082750054, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.002525203919105268</v>
+        <v>0.007271089479337078</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002525203919105268</v>
+        <v>0.007271089479337078</v>
       </c>
       <c r="S3" t="n">
-        <v>13.67370910234408</v>
+        <v>13.55089628952234</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.804373860444377, 15.543044344243791]</t>
+          <t>[11.676953607114061, 15.424838971930615]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.03379379379406</v>
+        <v>18.41801801801828</v>
       </c>
       <c r="X3" t="n">
-        <v>13.99927927927948</v>
+        <v>14.20126126126146</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.06830830830863</v>
+        <v>22.6347747747751</v>
       </c>
     </row>
   </sheetData>
